--- a/Translations/en-pt-FoodNinja-ContentThemeList.xlsx
+++ b/Translations/en-pt-FoodNinja-ContentThemeList.xlsx
@@ -561,12 +561,12 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Familiarisation with the food group of fruits and vegetables. Complexity of task escalates with advancing level: at the beginning the focus is on the fruits and the vegetables alone, then playing with their colours is introduced.</t>
+          <t>Search for the fruits and vegetables! Slice them to earn points and learn about their nutritional value and colourful palette, how many you should consume daily, and clever ways to add them in your diet.</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Familiarização com o grupo alimentar de frutas e vegetais. A complexidade da tarefa aumenta com o nível de avanço: no início, o foco está apenas nas frutas e nos vegetais e, em seguida, brincar com suas cores é introduzido.</t>
+          <t>Procure as frutas e legumes! Fatie-os para ganhar pontos e aprender sobre seu valor nutricional e paleta colorida, quantos você deve consumir diariamente e maneiras inteligentes de adicioná-los à sua dieta.</t>
         </is>
       </c>
     </row>
@@ -631,12 +631,12 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Your task is to slice only the fruits you see.</t>
+          <t>Your task is to slice the fruits!</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Sua tarefa é cortar apenas os frutos que você vê.</t>
+          <t>Sua tarefa é fatiar as frutas!</t>
         </is>
       </c>
     </row>
@@ -701,12 +701,12 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Fruits are among the foods it is recommended you consume on a daily basis. In general, 2-3 fruits per day is your ultimate goal. Selecting a fruit as a snack, at school or in the afternoon, will help you achieve your daily goal. To do so, give fruit a priority: first eat the fruit, then anything else!</t>
+          <t>Fruits are among the foods you should consume on a daily basis. In general, 2-3 fruits per day is your ultimate goal. Selecting a fruit as a snack, at school or in the afternoon, will help you achieve your daily goal. To do so, give fruit a priority: first eat the fruit, then anything else!</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>As frutas estão entre os alimentos que recomenda -se que você consuma diariamente. Em geral, 2-3 frutos por dia são seu objetivo final. A seleção de uma fruta como lanche, na escola ou à tarde, ajudará você a atingir sua meta diária. Para fazer isso, dê uma prioridade à fruta: primeiro coma a fruta e depois qualquer outra coisa!</t>
+          <t>As frutas estão entre os alimentos que você deve consumir diariamente. Em geral, 2-3 frutas por dia é o seu objetivo final. Escolher uma fruta no lanche, na escola ou à tarde, vai te ajudar a atingir seu objetivo diário. Para isso, dê prioridade à fruta: primeiro coma a fruta e depois qualquer outra coisa!</t>
         </is>
       </c>
     </row>
@@ -771,12 +771,12 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Your task is to slice only the veggies you see.</t>
+          <t>Your task is to slice the vegetables !</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Sua tarefa é cortar apenas os vegetais que você vê.</t>
+          <t>Sua tarefa é fatiar os legumes!</t>
         </is>
       </c>
     </row>
@@ -841,12 +841,12 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Vegetables, like fruits, are also recommended to be consumed on a daily basis. They can be served as a salad or even as a main dish. To meet your everyday goal, accompany your main meals with veggies!</t>
+          <t>Vegetables, like fruits, should be consumed on a daily basis. They can be served as a salad or even as a main dish. To meet your everyday goal, accompany your main meals with vegetables!</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Os vegetais, como frutas, também são recomendados para serem consumidos diariamente. Eles podem ser servidos como salada ou mesmo como prato principal. Para atingir seu objetivo diário, acompanhe suas refeições principais com vegetais!</t>
+          <t>Os vegetais, assim como as frutas, devem ser consumidos diariamente. Podem ser servidos como salada ou até como prato principal. Para cumprir o seu objetivo diário, acompanhe as suas refeições principais com vegetais!</t>
         </is>
       </c>
     </row>
@@ -911,12 +911,12 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Your task is to slice only the F&amp;V with red colour.</t>
+          <t>Your task is to slice the fruits anf vegetables with red colour!</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Sua tarefa é cortar apenas o F&amp;V com cor vermelha.</t>
+          <t>Sua tarefa é fatiar as frutas e legumes com a cor vermelha!</t>
         </is>
       </c>
     </row>
@@ -1086,12 +1086,12 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Familiarisation with the food group of dairy products. The complexity of the task increases with each level: first, the focus is on identifying and slicing common dairy products; then, learners move on to slicing the image that shows the recommended daily consumption of dairy products; finally, they identify and slice the image that highlights the key nutrient found in dairies, i.e. calcium.</t>
+          <t>Search for the dairy products! Slice them to earn points and learn about their key nutrients, how many you should consume daily, their serving size, and clever ways to add them in your diet..</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Familiarização com o grupo alimentar de produtos lácteos. A complexidade da tarefa aumenta com cada nível: primeiro, o foco é identificar e cortar produtos lácteos comuns; Em seguida, os alunos passam a cortar a imagem que mostra o consumo diário recomendado de produtos lácteos; Finalmente, eles identificam e cortam a imagem que destaca o principal nutriente encontrado em laticínios, ou seja, cálcio.</t>
+          <t>Procure os laticínios! Fatie-os para ganhar pontos e aprender sobre seus principais nutrientes, quantos você deve consumir diariamente, o tamanho da porção e maneiras inteligentes de adicioná-los à sua dieta.</t>
         </is>
       </c>
     </row>
@@ -1156,12 +1156,12 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Your task is to slice only the dairy products you see.</t>
+          <t>Your task is to slice the dairy products!</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Sua tarefa é cortar apenas os produtos lácteos que você vê.</t>
+          <t>Sua tarefa é fatiar os laticínios!</t>
         </is>
       </c>
     </row>
@@ -1191,12 +1191,12 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Make dairies a daily habit! Include them early in your day and build healthy habits that last!</t>
+          <t>Make dairy products a daily habit! Include them early in your day and build healthy habits that last!</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Faça dos laticínios um hábito diário! Inclua -os no início do seu dia e construa hábitos saudáveis que duram!</t>
+          <t>Faça dos laticínios um hábito diário! Inclua-os no início do dia e crie hábitos saudáveis ​​que durem!</t>
         </is>
       </c>
     </row>
@@ -1226,12 +1226,12 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Dairy products like milk, yogurt, and cheese are foods recommended for daily consumption because they provide key nutrients for your growth and development.</t>
+          <t>Dairy products like milk, yogurt, and cheese are foods you shoulod consume daily because they provide key nutrients for your growth and development.</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Produtos lácteos como leite, iogurte e queijo são alimentos recomendados para o consumo diário, porque fornecem nutrientes importantes para o seu crescimento e desenvolvimento.</t>
+          <t>Produtos lácteos como leite, iogurte e queijo são alimentos que você deve consumir diariamente porque fornecem nutrientes essenciais para o seu crescimento e desenvolvimento.</t>
         </is>
       </c>
     </row>
@@ -1296,12 +1296,12 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Your task is to slice only the recommended daily consumption of dairy products you see.</t>
+          <t>Your task is to slice the recommended daily consumption of dairy products!</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Sua tarefa é cortar apenas o consumo diário recomendado de produtos lácteos que você vê.</t>
+          <t>Sua tarefa é fatiar o consumo diário recomendado de laticínios!</t>
         </is>
       </c>
     </row>
@@ -1331,7 +1331,7 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Go with dairies every day!</t>
+          <t>Go with dairy products every day!</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
@@ -1366,12 +1366,12 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>To meet the goal of 3-4 servings of dairy products per day, try including a glass of milk with breakfast, yogurt as a snack, or cheese with your lunch or dinner. Make it a habit — pair your meals or snacks with a dairy option to stay strong and healthy!</t>
+          <t>To meet the goal of 3-4 servings of dairy products per day, try including a glass of milk with breakfast, yogurt as a snack, or cheese with your lunch or dinner. Make it a habit — pair your meals or snacks with a dairy product boption to stay strong and healthy!</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Para cumprir o objetivo de 3-4 porções de laticínios por dia, tente incluir um copo de leite com café da manhã, iogurte como lanche ou queijo com seu almoço ou jantar. Faça um hábito - combine suas refeições ou lanches com uma opção de laticínios para permanecer forte e saudável!</t>
+          <t>Para atingir a meta de 3-4 porções de laticínios por dia, experimente incluir um copo de leite no café da manhã, iogurte no lanche ou queijo no almoço ou jantar. Crie o hábito - combine suas refeições ou lanches com uma opção de laticínios para se manter forte e saudável!</t>
         </is>
       </c>
     </row>
@@ -1436,12 +1436,12 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Your task is to identify what counts as one portion of a dairy product. Select all the items that represent a standard dairy portion.</t>
+          <t xml:space="preserve">Your task is to slice what counts as one portion of a dairy product. </t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Sua tarefa é identificar o que conta como uma parte de um produto de laticínios. Selecione todos os itens que representam uma parte de laticínios padrão.</t>
+          <t>Sua tarefa é fatiar o que conta como uma porção de um laticínio.</t>
         </is>
       </c>
     </row>
@@ -1576,12 +1576,12 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Your task is to slice only the key nutrient found in dairy products. Note that: Ca: calcium, Fe: Iron.</t>
+          <t>Your task is to slice the key nutrient found in dairy products! Note that: Ca: calcium, Fe: Iron, vE: vitamin E.</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Sua tarefa é cortar apenas o principal nutriente encontrado em produtos lácteos. Observe que: CA: Cálcio, Fe: Ferro.</t>
+          <t>Sua tarefa é fatiar o principal nutriente encontrado nos laticínios! Observe que: Ca: cálcio, Fe: Ferro, vE: vitamina E.</t>
         </is>
       </c>
     </row>
@@ -1611,12 +1611,12 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Dairy products are one of the best sources of calcium (Ca), which helps build strong bones and teeth.</t>
+          <t>Dairy products are one of the best sources of calcium , which helps build strong bones and teeth.</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Os produtos lácteos são uma das melhores fontes de cálcio (CA), que ajuda a construir ossos e dentes fortes.</t>
+          <t>Os laticínios são uma das melhores fontes de cálcio, que ajuda a construir ossos e dentes fortes.</t>
         </is>
       </c>
     </row>
